--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384373.6490330475</v>
+        <v>446154.6473166287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>141.6599015617434</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7836035068642</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>67.92916204761546</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.6568440487848</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03324702596070892</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>395.1710237337881</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>230.4963925089584</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1136,22 +1136,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>53.40840756313671</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>79.43158348657892</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,10 +1291,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>152.08118086189</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537892</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518615</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.3727203283469</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287216</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>145.82851669742</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>420.1696338988322</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.8469234786638</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225715</v>
       </c>
       <c r="T19" t="n">
-        <v>13.99728392830395</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>166.1625368329209</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2132,10 +2132,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>206.8981232563554</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023629</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>205.9320983586114</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,10 +2539,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494659</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436918</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630735</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>148.6041873872578</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,16 +3196,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015935</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,10 +3436,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>35.4724833151011</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3554,7 +3554,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3661,16 +3661,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284527</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>78.37744390510653</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>60.80118788412313</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>102.572417907176</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>146.8581123645739</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>127.6561220736177</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.0044704481411</v>
+        <v>1378.118739920744</v>
       </c>
       <c r="C2" t="n">
-        <v>809.9024016719685</v>
+        <v>939.9762671041674</v>
       </c>
       <c r="D2" t="n">
-        <v>778.0330208868171</v>
+        <v>504.0664822786118</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>474.332141477311</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>450.5051159269228</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805629</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805629</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797684</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>2228.621544034846</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>2228.621544034846</v>
       </c>
       <c r="W2" t="n">
-        <v>885.6114159328727</v>
+        <v>1823.76608944588</v>
       </c>
       <c r="X2" t="n">
-        <v>870.5093565525874</v>
+        <v>1404.62362602519</v>
       </c>
       <c r="Y2" t="n">
-        <v>866.2636368926449</v>
+        <v>1400.377906365248</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940198</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.9454964518109</v>
+        <v>862.7984418984996</v>
       </c>
       <c r="C4" t="n">
-        <v>428.3837849350358</v>
+        <v>690.2367303817246</v>
       </c>
       <c r="D4" t="n">
-        <v>262.5057921365585</v>
+        <v>524.3587375832473</v>
       </c>
       <c r="E4" t="n">
-        <v>262.5057921365585</v>
+        <v>354.6007338339845</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>354.6007338339845</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>189.0094588598122</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>91.3608564523079</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1519.99530944888</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2188.066959793163</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1909.633959046268</v>
       </c>
       <c r="V4" t="n">
-        <v>1013.629614209975</v>
+        <v>1622.678450916698</v>
       </c>
       <c r="W4" t="n">
-        <v>1013.629614209975</v>
+        <v>1350.65204650299</v>
       </c>
       <c r="X4" t="n">
-        <v>1013.629614209975</v>
+        <v>1282.036731303378</v>
       </c>
       <c r="Y4" t="n">
-        <v>792.764115170798</v>
+        <v>1054.617060617487</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6066390714051</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5045702952325</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.149847225912</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.294392636945</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1519292162554</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8658055159088</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512.2855472264862</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>339.7238357097111</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1653.213838276079</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1653.213838276079</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1218.479344760935</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V7" t="n">
-        <v>931.5238366313652</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>931.5238366313652</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>931.5238366313652</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>704.1041659454734</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523341</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506058</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>798.2938782624192</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851274</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567029</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859463</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1071.124368270496</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>990.8904455567804</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.6447258968378</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456965</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.1391675556447</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>523.1391675556447</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1391675556447</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>353.381163806382</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681382</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902587</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1438.873006847903</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1438.873006847903</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223633</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1679.355404223633</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1400.922403476739</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.966895347169</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>960.3495409412194</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>714.9577862746319</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.9577862746319</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
@@ -5027,40 +5027,40 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503958</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
@@ -5069,22 +5069,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="O12" t="n">
         <v>282.3408549543107</v>
@@ -5188,16 +5188,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,22 +5224,22 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
         <v>1139.050632477034</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847298</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939376</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
         <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>829.3290795054901</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>656.767367988715</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>976.6306115230861</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2511.879170851551</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2073.736698034974</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4764.22618407731</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2938.178741336459</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O18" t="n">
         <v>282.3408549543107</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111461</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458044</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>458.07411641694</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849012</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2197.69591774924</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2545.202811719582</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S19" t="n">
-        <v>2691.977765289286</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2677.839094654636</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2399.406093907741</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778172</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D20" t="n">
         <v>1648.906137047132</v>
@@ -5738,40 +5738,40 @@
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503959</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940406</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4188.004336731816</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.891962983371</v>
+        <v>784.8119928041</v>
       </c>
       <c r="C22" t="n">
-        <v>863.3302514665963</v>
+        <v>612.2502812873249</v>
       </c>
       <c r="D22" t="n">
-        <v>697.4522586681187</v>
+        <v>446.3722884888476</v>
       </c>
       <c r="E22" t="n">
-        <v>527.6942549188559</v>
+        <v>276.6142847395849</v>
       </c>
       <c r="F22" t="n">
-        <v>350.9872008806122</v>
+        <v>99.90723070134106</v>
       </c>
       <c r="G22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165739</v>
       </c>
       <c r="U22" t="n">
-        <v>2259.503919598116</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.548411468546</v>
+        <v>1721.468441289275</v>
       </c>
       <c r="W22" t="n">
-        <v>1700.522007054838</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.13025238825</v>
+        <v>1204.050282208979</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.710581702358</v>
+        <v>976.6306115230871</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
         <v>614.3171730324584</v>
@@ -6646,22 +6646,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
         <v>1144.575496066698</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1554751127511</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276422</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>632.5563420751433</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>462.7983383258806</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127511</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6941,25 +6941,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6968,10 +6968,10 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937638</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C37" t="n">
-        <v>790.3368563937638</v>
+        <v>780.1951658309355</v>
       </c>
       <c r="D37" t="n">
-        <v>624.4588635952865</v>
+        <v>614.3171730324582</v>
       </c>
       <c r="E37" t="n">
-        <v>454.7008598460238</v>
+        <v>444.5591692831954</v>
       </c>
       <c r="F37" t="n">
-        <v>277.9938058077799</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7178,28 +7178,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595857</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1004.611946844417</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276422</v>
+        <v>754.219347342084</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291649</v>
+        <v>754.219347342084</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1669.241990915884</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1423.850236249296</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1196.430565563404</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,31 +7409,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>845.969722159226</v>
+        <v>811.7546776883926</v>
       </c>
       <c r="C43" t="n">
-        <v>673.4080106424509</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D43" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E43" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2593.89412594241</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2348.014679520865</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U43" t="n">
-        <v>2069.58167877397</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1782.626170644401</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1510.599766230693</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1265.208011564105</v>
+        <v>1230.992967093272</v>
       </c>
       <c r="Y43" t="n">
-        <v>1037.788340878213</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="44">
@@ -7652,46 +7652,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054305</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099324</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878723</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,22 +8222,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.41372909529082</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>233.8696880943446</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8942,7 +8942,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>769.1429509552408</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>484.4852854251394</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790752</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>484.4852854251385</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.0111327346209</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>268.0111327346215</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.07191583437719</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>11.3810530784677</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.96843159933757</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
-        <v>229.4233680290253</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>267.5985112554901</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>10.96843159933636</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744407</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.71657238081428</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>161.926849064975</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957339</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>22.23190701434951</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>128.4628789093295</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>113.876117358762</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>190.9286964644648</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0349065174842</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>55.0765371078073</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>96.56253959275543</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>141.6500182959537</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669819.1648124711</v>
+        <v>669819.1648124714</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669819.1648124713</v>
+        <v>669819.1648124714</v>
       </c>
     </row>
     <row r="9">
@@ -26314,13 +26314,13 @@
         <v>227862.6109534236</v>
       </c>
       <c r="C2" t="n">
-        <v>227862.6109534236</v>
+        <v>227862.6109534237</v>
       </c>
       <c r="D2" t="n">
         <v>227862.6109534236</v>
       </c>
       <c r="E2" t="n">
-        <v>214847.6566379625</v>
+        <v>214847.6566379626</v>
       </c>
       <c r="F2" t="n">
         <v>214847.6566379625</v>
@@ -26329,7 +26329,7 @@
         <v>214847.6566379624</v>
       </c>
       <c r="H2" t="n">
-        <v>214847.6566379624</v>
+        <v>214847.6566379625</v>
       </c>
       <c r="I2" t="n">
         <v>223914.4732583748</v>
@@ -26344,7 +26344,7 @@
         <v>223914.4732583748</v>
       </c>
       <c r="M2" t="n">
-        <v>223914.4732583747</v>
+        <v>223914.4732583748</v>
       </c>
       <c r="N2" t="n">
         <v>223914.4732583747</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715079</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
+        <v>773.6821211687734</v>
+      </c>
+      <c r="F4" t="n">
+        <v>773.6821211687734</v>
+      </c>
+      <c r="G4" t="n">
+        <v>773.6821211687734</v>
+      </c>
+      <c r="H4" t="n">
         <v>773.6821211687732</v>
-      </c>
-      <c r="F4" t="n">
-        <v>773.6821211687732</v>
-      </c>
-      <c r="G4" t="n">
-        <v>773.6821211687732</v>
-      </c>
-      <c r="H4" t="n">
-        <v>773.6821211687734</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,10 +26448,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907825613</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="O4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764753</v>
+      </c>
+      <c r="F5" t="n">
+        <v>73519.34227764753</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73519.34227764753</v>
+      </c>
+      <c r="H5" t="n">
         <v>73519.34227764752</v>
-      </c>
-      <c r="F5" t="n">
-        <v>73519.34227764752</v>
-      </c>
-      <c r="G5" t="n">
-        <v>73519.34227764752</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77718.23860579252</v>
-      </c>
-      <c r="P5" t="n">
-        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142921.5711132685</v>
+        <v>-174587.165780129</v>
       </c>
       <c r="C6" t="n">
-        <v>-730.2704535584999</v>
+        <v>22805.13579950853</v>
       </c>
       <c r="D6" t="n">
-        <v>-5770.521856811771</v>
+        <v>40145.68017341524</v>
       </c>
       <c r="E6" t="n">
-        <v>-83244.66151288124</v>
+        <v>-21257.00152576502</v>
       </c>
       <c r="F6" t="n">
-        <v>140554.6322391462</v>
+        <v>140478.0736843494</v>
       </c>
       <c r="G6" t="n">
-        <v>140554.6322391461</v>
+        <v>140478.0736843493</v>
       </c>
       <c r="H6" t="n">
-        <v>140554.6322391462</v>
+        <v>140478.0736843494</v>
       </c>
       <c r="I6" t="n">
-        <v>127025.1866289602</v>
+        <v>127001.9622895775</v>
       </c>
       <c r="J6" t="n">
-        <v>34375.43691680949</v>
+        <v>-15241.15156319616</v>
       </c>
       <c r="K6" t="n">
-        <v>145389.9022617997</v>
+        <v>131552.6693545718</v>
       </c>
       <c r="L6" t="n">
-        <v>136442.2911732898</v>
+        <v>145366.677922417</v>
       </c>
       <c r="M6" t="n">
-        <v>-41401.08434866808</v>
+        <v>10376.73330941358</v>
       </c>
       <c r="N6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.6779224169</v>
       </c>
       <c r="O6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.677922417</v>
       </c>
       <c r="P6" t="n">
-        <v>145389.9022617996</v>
+        <v>145366.6779224169</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>114.9701780944099</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>257.0232965362128</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>175.0086750723062</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.488629930247981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.957533539551</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>9.03223872955499</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>45.15227823046729</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,67 +27856,67 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>370.1803477317476</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U8" t="n">
-        <v>256.6300796561533</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>335.5194552999035</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.2249595076813</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054305</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099324</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878723</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,22 +34942,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.41372909529082</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>233.8696880943446</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790751</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,7 +35662,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>769.1429509552408</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>484.4852854251394</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790752</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>484.4852854251385</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
